--- a/data/002021.SZ-20210824.xlsx
+++ b/data/002021.SZ-20210824.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L245"/>
+  <dimension ref="A1:L246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -8220,7 +8220,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -9270,7 +9270,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -10152,7 +10152,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -10320,7 +10320,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -10488,7 +10488,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -10530,7 +10530,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -10736,6 +10736,48 @@
       </c>
       <c r="L245" t="n">
         <v>14455.093</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>002021.SZ</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>20210824</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.4975</v>
+      </c>
+      <c r="K246" t="n">
+        <v>59768.01</v>
+      </c>
+      <c r="L246" t="n">
+        <v>11999.845</v>
       </c>
     </row>
   </sheetData>
